--- a/DATA/RecaudacionYFiscalizacionDeAportacionesPatronales.xlsx
+++ b/DATA/RecaudacionYFiscalizacionDeAportacionesPatronales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulyelizondo/Documents/tesis/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42FDBB5-A2F5-F14C-8483-D9E72D187DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F04F45-87A4-254D-B784-85437EDB24BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -159,7 +159,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
